--- a/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Clase-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 2,91</t>
+          <t>2,29; 2,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 2,81</t>
+          <t>2,23; 2,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,35; 2,78</t>
+          <t>2,34; 2,79</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 2,88</t>
+          <t>2,13; 2,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 2,82</t>
+          <t>2,11; 2,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,22; 2,74</t>
+          <t>2,2; 2,69</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,48</t>
+          <t>1,54; 2,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,36</t>
+          <t>1,18; 2,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,55; 2,27</t>
+          <t>1,48; 2,26</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>2,38</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>2,17</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,34</t>
+          <t>1,61; 2,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 2,89</t>
+          <t>1,95; 2,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,86; 2,46</t>
+          <t>1,88; 2,51</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,56; 3,03</t>
+          <t>1,55; 3,08</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,86</t>
+          <t>1,77; 2,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,72</t>
+          <t>1,81; 2,71</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>1,83</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,45</t>
+          <t>1,05; 2,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,46; 2,71</t>
+          <t>1,41; 2,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,43; 2,41</t>
+          <t>1,36; 2,31</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,07; 2,44</t>
+          <t>2,06; 2,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,17; 2,52</t>
+          <t>2,16; 2,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,17; 2,41</t>
+          <t>2,16; 2,42</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Clase-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Molestia del ruido del ocio durante la noche en el interior de la vivienda</t>
+          <t>Molestia del ruido del ocio durante la noche en el interior de la vivienda (tasa de respuesta: 99,8%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Clase-trans_orig.xlsx
+++ b/data/trans_orig/MOL_RUIDO_OCIO_NOCHE-Clase-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 2,93</t>
+          <t>2,29; 2,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 2,84</t>
+          <t>2,26; 2,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,34; 2,79</t>
+          <t>2,35; 2,78</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 2,88</t>
+          <t>2,11; 2,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 2,8</t>
+          <t>2,12; 2,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,2; 2,69</t>
+          <t>2,21; 2,73</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,51</t>
+          <t>1,53; 2,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 2,4</t>
+          <t>1,25; 2,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 2,26</t>
+          <t>1,52; 2,3</t>
         </is>
       </c>
     </row>
@@ -734,12 +734,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 2,91</t>
+          <t>1,97; 2,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 2,51</t>
+          <t>1,89; 2,51</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,55; 3,08</t>
+          <t>1,51; 3,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,86</t>
+          <t>1,73; 2,79</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,81; 2,71</t>
+          <t>1,83; 2,74</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,43</t>
+          <t>1,07; 2,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,41; 2,73</t>
+          <t>1,38; 2,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,36; 2,31</t>
+          <t>1,43; 2,39</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 2,43</t>
+          <t>2,08; 2,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,16; 2,52</t>
+          <t>2,15; 2,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,16; 2,42</t>
+          <t>2,17; 2,41</t>
         </is>
       </c>
     </row>
